--- a/PreliminarySchedule.xlsx
+++ b/PreliminarySchedule.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThaoMy\ITEC\NA\gitHub\need-analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
@@ -12,12 +17,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>a</t>
   </si>
@@ -101,6 +106,42 @@
   <si>
     <t>set up enviroment for 
 testing and benchmarking</t>
+  </si>
+  <si>
+    <t>vender selection</t>
+  </si>
+  <si>
+    <t>training users</t>
+  </si>
+  <si>
+    <t>deployment</t>
+  </si>
+  <si>
+    <t>ongoing support</t>
+  </si>
+  <si>
+    <t>detailed discussion</t>
+  </si>
+  <si>
+    <t>implementation planning</t>
+  </si>
+  <si>
+    <t>design the system</t>
+  </si>
+  <si>
+    <t>development the system</t>
+  </si>
+  <si>
+    <t>testing the system</t>
+  </si>
+  <si>
+    <t>modification request</t>
+  </si>
+  <si>
+    <t>create go live plan</t>
+  </si>
+  <si>
+    <t>HRMS project</t>
   </si>
 </sst>
 </file>
@@ -110,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +162,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -147,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -176,6 +225,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,6 +237,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -498,11 +553,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="103724544"/>
-        <c:axId val="103726080"/>
+        <c:axId val="279051208"/>
+        <c:axId val="279055128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103724544"/>
+        <c:axId val="279051208"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -525,7 +580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103726080"/>
+        <c:crossAx val="279055128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -533,7 +588,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103726080"/>
+        <c:axId val="279055128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42589"/>
@@ -546,7 +601,322 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103724544"/>
+        <c:crossAx val="279051208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="7"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23030618296788496"/>
+          <c:y val="4.0836395450568677E-2"/>
+          <c:w val="0.7471959143973067"/>
+          <c:h val="0.93323767862350537"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>start date </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$20:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>HRMS project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>vender selection</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>detailed discussion</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>implementation planning</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>design the system</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>development the system</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>testing the system</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>modification request</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>create go live plan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>deployment</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>training users</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ongoing support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>42495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42507</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42594</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42596</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>end date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$20:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>HRMS project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>vender selection</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>detailed discussion</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>implementation planning</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>design the system</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>development the system</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>testing the system</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>modification request</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>create go live plan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>deployment</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>training users</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ongoing support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="98504280"/>
+        <c:axId val="98504672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="98504280"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="25400"/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98504672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98504672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42690"/>
+          <c:min val="42489"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="m/d;@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98504280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -569,16 +939,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541324</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>62513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>564776</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>62513</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -592,6 +962,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>550127</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -643,7 +1045,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -678,7 +1080,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -889,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1572,9 @@
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="B20" s="6"/>
       <c r="C20" s="9">
         <f t="shared" si="0"/>
@@ -1179,103 +1583,179 @@
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="9">
+        <v>42495</v>
+      </c>
       <c r="C21" s="9">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>42501</v>
+      </c>
+      <c r="D21" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="9">
+        <f>C21</f>
+        <v>42501</v>
+      </c>
       <c r="C22" s="9">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D22" s="5"/>
+        <v>42503</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6">
+        <f>C22</f>
+        <v>42503</v>
+      </c>
       <c r="C23" s="9">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D23" s="5"/>
+        <v>42507</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6">
+        <f>C23</f>
+        <v>42507</v>
+      </c>
       <c r="C24" s="9">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>42516</v>
+      </c>
+      <c r="D24" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="6">
+        <f>C24</f>
+        <v>42516</v>
+      </c>
       <c r="C25" s="9">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D25" s="5"/>
+        <v>42575</v>
+      </c>
+      <c r="D25" s="5">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="6">
+        <f>C25</f>
+        <v>42575</v>
+      </c>
       <c r="C26" s="9">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>42584</v>
+      </c>
+      <c r="D26" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="6">
+        <f>C26</f>
+        <v>42584</v>
+      </c>
       <c r="C27" s="9">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D27" s="5"/>
+        <v>42593</v>
+      </c>
+      <c r="D27" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="6">
+        <f>C27</f>
+        <v>42593</v>
+      </c>
       <c r="C28" s="9">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D28" s="5"/>
+        <v>42594</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <f>C28</f>
+        <v>42594</v>
+      </c>
       <c r="C29" s="9">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D29" s="5"/>
+        <v>42596</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="6">
+        <f>C29</f>
+        <v>42596</v>
+      </c>
       <c r="C30" s="9">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D30" s="5"/>
+        <v>42598</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6">
+        <f>C30</f>
+        <v>42598</v>
+      </c>
       <c r="C31" s="9">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D31" s="5"/>
+        <v>42687</v>
+      </c>
+      <c r="D31" s="5">
+        <v>90</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>

--- a/PreliminarySchedule.xlsx
+++ b/PreliminarySchedule.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThaoMy\ITEC\NA\gitHub\need-analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
@@ -17,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -108,18 +103,12 @@
 testing and benchmarking</t>
   </si>
   <si>
-    <t>vender selection</t>
-  </si>
-  <si>
     <t>training users</t>
   </si>
   <si>
     <t>deployment</t>
   </si>
   <si>
-    <t>ongoing support</t>
-  </si>
-  <si>
     <t>detailed discussion</t>
   </si>
   <si>
@@ -142,6 +131,12 @@
   </si>
   <si>
     <t>HRMS project</t>
+  </si>
+  <si>
+    <t>system training</t>
+  </si>
+  <si>
+    <t>announce selected vendors</t>
   </si>
 </sst>
 </file>
@@ -210,9 +205,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -222,11 +214,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -296,9 +291,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Content management project</c:v>
                 </c:pt>
@@ -351,17 +346,23 @@
 with third selected vendor (optional)</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>announce selected vendors</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>implement CMS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>system training</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="1">
                   <c:v>42491</c:v>
                 </c:pt>
@@ -406,6 +407,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>42540</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42541</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,9 +435,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Content management project</c:v>
                 </c:pt>
@@ -483,17 +490,23 @@
 with third selected vendor (optional)</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>announce selected vendors</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>implement CMS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>system training</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:f>Sheet1!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
@@ -537,7 +550,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,11 +572,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="279051208"/>
-        <c:axId val="279055128"/>
+        <c:axId val="109298432"/>
+        <c:axId val="109299968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="279051208"/>
+        <c:axId val="109298432"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -567,11 +586,8 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="25400"/>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -580,15 +596,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279055128"/>
+        <c:crossAx val="109299968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
+        <c:lblAlgn val="r"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="279055128"/>
+        <c:axId val="109299968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42589"/>
@@ -601,7 +617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279051208"/>
+        <c:crossAx val="109298432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -612,6 +628,16 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600" i="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -671,86 +697,74 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$20:$A$31</c:f>
+              <c:f>Sheet1!$A$21:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>HRMS project</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>vender selection</c:v>
+                  <c:v>detailed discussion</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>detailed discussion</c:v>
+                  <c:v>implementation planning</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>implementation planning</c:v>
+                  <c:v>design the system</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>design the system</c:v>
+                  <c:v>development the system</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>development the system</c:v>
+                  <c:v>testing the system</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>testing the system</c:v>
+                  <c:v>modification request</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>modification request</c:v>
+                  <c:v>create go live plan</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>create go live plan</c:v>
+                  <c:v>deployment</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>deployment</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>training users</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>ongoing support</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$31</c:f>
+              <c:f>Sheet1!$B$21:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>42495</c:v>
-                </c:pt>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
-                  <c:v>42501</c:v>
+                  <c:v>42500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42503</c:v>
+                  <c:v>42510</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42507</c:v>
+                  <c:v>42515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42516</c:v>
+                  <c:v>42525</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42575</c:v>
+                  <c:v>42585</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42584</c:v>
+                  <c:v>42595</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42593</c:v>
+                  <c:v>42605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42594</c:v>
+                  <c:v>42607</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42596</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42598</c:v>
+                  <c:v>42610</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -773,59 +787,50 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$20:$A$31</c:f>
+              <c:f>Sheet1!$A$21:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>HRMS project</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>vender selection</c:v>
+                  <c:v>detailed discussion</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>detailed discussion</c:v>
+                  <c:v>implementation planning</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>implementation planning</c:v>
+                  <c:v>design the system</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>design the system</c:v>
+                  <c:v>development the system</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>development the system</c:v>
+                  <c:v>testing the system</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>testing the system</c:v>
+                  <c:v>modification request</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>modification request</c:v>
+                  <c:v>create go live plan</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>create go live plan</c:v>
+                  <c:v>deployment</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>deployment</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>training users</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>ongoing support</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$D$31</c:f>
+              <c:f>Sheet1!$D$21:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -849,10 +854,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>90</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -868,11 +870,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="98504280"/>
-        <c:axId val="98504672"/>
+        <c:axId val="49867008"/>
+        <c:axId val="51102464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98504280"/>
+        <c:axId val="49867008"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -895,7 +897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98504672"/>
+        <c:crossAx val="51102464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -903,11 +905,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98504672"/>
+        <c:axId val="51102464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="42690"/>
-          <c:min val="42489"/>
+          <c:max val="42619"/>
+          <c:min val="42500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -916,7 +918,315 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98504280"/>
+        <c:crossAx val="49867008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="7"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23030618296788496"/>
+          <c:y val="4.0836395450568677E-2"/>
+          <c:w val="0.7471959143973067"/>
+          <c:h val="0.93323767862350537"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>start date </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$9:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>receive and evaluate proposal from vendor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>vendor demonstrate their solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>discuss with customer 
+about proposed solutions</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>set up enviroment for 
+testing and benchmarking</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test and benchmark</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>negotiate with selected vendor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>testing, benchmarking, negotiaton
+ with second selected vendor (optional)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>testing, benchmarking, negotiaton 
+with third selected vendor (optional)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>announce selected vendors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42526</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42530</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42535</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>end date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$9:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>receive and evaluate proposal from vendor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>vendor demonstrate their solution</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>discuss with customer 
+about proposed solutions</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>set up enviroment for 
+testing and benchmarking</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test and benchmark</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>negotiate with selected vendor</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>testing, benchmarking, negotiaton
+ with second selected vendor (optional)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>testing, benchmarking, negotiaton 
+with third selected vendor (optional)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>announce selected vendors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="51074560"/>
+        <c:axId val="51101696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="51074560"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="25400"/>
+          <a:effectLst>
+            <a:glow>
+              <a:schemeClr val="accent1">
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:glow>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" kern="100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51101696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51101696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42547"/>
+          <c:min val="42505"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="m/d;@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51074560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -940,15 +1250,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>541324</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>62513</xdr:rowOff>
+      <xdr:colOff>486896</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>564776</xdr:colOff>
+      <xdr:colOff>510348</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>62513</xdr:rowOff>
+      <xdr:rowOff>137584</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -969,20 +1279,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>5603</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>484575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>91568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>550127</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>5603</xdr:rowOff>
+      <xdr:colOff>334335</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>91568</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -994,6 +1304,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>415658</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>175292</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1045,7 +1387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1080,7 +1422,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1291,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA92" sqref="AA92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,325 +1647,326 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>42491</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <f>B3+D3-1</f>
         <v>42497</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>42491</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <f t="shared" ref="C4:C67" si="0">B4+D4-1</f>
         <v>42497</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>42491</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
         <v>42497</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>42498</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>42498</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>42499</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>42503</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>42504</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>42504</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>42505</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
         <v>42511</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="8">
         <v>42512</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>42515</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="8">
         <v>42516</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f t="shared" si="0"/>
         <v>42522</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="8">
         <v>42524</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <f t="shared" si="0"/>
         <v>42525</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="8">
         <v>42526</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <f t="shared" si="0"/>
         <v>42526</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="8">
         <v>42527</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f t="shared" si="0"/>
         <v>42529</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="8">
         <v>42530</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <f t="shared" si="0"/>
         <v>42534</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="8">
         <v>42535</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <f t="shared" si="0"/>
         <v>42539</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="8">
+        <v>42540</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="0"/>
+        <v>42540</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6">
-        <v>42540</v>
-      </c>
-      <c r="C17" s="9">
-        <f t="shared" si="0"/>
-        <v>42584</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="B18" s="8">
+        <v>42541</v>
+      </c>
+      <c r="C18" s="8">
+        <f>B18+D18-1</f>
+        <v>42585</v>
+      </c>
+      <c r="D18" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="9">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="9">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D19" s="5"/>
+      <c r="A19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8">
+        <v>42586</v>
+      </c>
+      <c r="C19" s="8">
+        <f>B19+D19-1</f>
+        <v>42587</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="9">
-        <v>42495</v>
-      </c>
-      <c r="C21" s="9">
-        <f t="shared" si="0"/>
-        <v>42501</v>
-      </c>
-      <c r="D21" s="5">
-        <v>7</v>
-      </c>
+      <c r="A21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="9">
-        <f>C21</f>
-        <v>42501</v>
-      </c>
-      <c r="C22" s="9">
-        <f t="shared" si="0"/>
-        <v>42503</v>
+        <v>28</v>
+      </c>
+      <c r="B22" s="8">
+        <v>42500</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="0"/>
+        <v>42509</v>
       </c>
       <c r="D22" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="6">
-        <f>C22</f>
-        <v>42503</v>
-      </c>
-      <c r="C23" s="9">
-        <f t="shared" si="0"/>
-        <v>42507</v>
+        <f>C22+1</f>
+        <v>42510</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="0"/>
+        <v>42514</v>
       </c>
       <c r="D23" s="5">
         <v>5</v>
@@ -1631,15 +1974,15 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="6">
-        <f>C23</f>
-        <v>42507</v>
-      </c>
-      <c r="C24" s="9">
-        <f t="shared" si="0"/>
-        <v>42516</v>
+        <f t="shared" ref="B24:B30" si="1">C23+1</f>
+        <v>42515</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="0"/>
+        <v>42524</v>
       </c>
       <c r="D24" s="5">
         <v>10</v>
@@ -1647,15 +1990,15 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="6">
-        <f>C24</f>
-        <v>42516</v>
-      </c>
-      <c r="C25" s="9">
-        <f t="shared" si="0"/>
-        <v>42575</v>
+        <f t="shared" si="1"/>
+        <v>42525</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="0"/>
+        <v>42584</v>
       </c>
       <c r="D25" s="5">
         <v>60</v>
@@ -1663,15 +2006,15 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="6">
-        <f>C25</f>
-        <v>42575</v>
-      </c>
-      <c r="C26" s="9">
-        <f t="shared" si="0"/>
-        <v>42584</v>
+        <f t="shared" si="1"/>
+        <v>42585</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" si="0"/>
+        <v>42594</v>
       </c>
       <c r="D26" s="5">
         <v>10</v>
@@ -1679,15 +2022,15 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="6">
-        <f>C26</f>
-        <v>42584</v>
-      </c>
-      <c r="C27" s="9">
-        <f t="shared" si="0"/>
-        <v>42593</v>
+        <f t="shared" si="1"/>
+        <v>42595</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="0"/>
+        <v>42604</v>
       </c>
       <c r="D27" s="5">
         <v>10</v>
@@ -1695,15 +2038,15 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="6">
-        <f>C27</f>
-        <v>42593</v>
-      </c>
-      <c r="C28" s="9">
-        <f t="shared" si="0"/>
-        <v>42594</v>
+        <f t="shared" si="1"/>
+        <v>42605</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" si="0"/>
+        <v>42606</v>
       </c>
       <c r="D28" s="5">
         <v>2</v>
@@ -1711,15 +2054,15 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6">
-        <f>C28</f>
-        <v>42594</v>
-      </c>
-      <c r="C29" s="9">
-        <f t="shared" si="0"/>
-        <v>42596</v>
+        <f t="shared" si="1"/>
+        <v>42607</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="0"/>
+        <v>42609</v>
       </c>
       <c r="D29" s="5">
         <v>3</v>
@@ -1727,40 +2070,30 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="6">
-        <f>C29</f>
-        <v>42596</v>
-      </c>
-      <c r="C30" s="9">
-        <f t="shared" si="0"/>
-        <v>42598</v>
+        <f t="shared" si="1"/>
+        <v>42610</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="0"/>
+        <v>42616</v>
       </c>
       <c r="D30" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6">
-        <f>C30</f>
-        <v>42598</v>
-      </c>
-      <c r="C31" s="9">
-        <f t="shared" si="0"/>
-        <v>42687</v>
-      </c>
-      <c r="D31" s="5">
-        <v>90</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1769,7 +2102,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1778,7 +2111,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1787,7 +2120,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1796,7 +2129,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1805,7 +2138,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1814,7 +2147,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1823,7 +2156,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1832,7 +2165,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1841,7 +2174,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1850,7 +2183,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1859,7 +2192,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1868,7 +2201,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1877,7 +2210,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1886,7 +2219,7 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1895,7 +2228,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1904,7 +2237,7 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1913,7 +2246,7 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1922,7 +2255,7 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1931,7 +2264,7 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1940,7 +2273,7 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1949,7 +2282,7 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1958,7 +2291,7 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1967,7 +2300,7 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1976,7 +2309,7 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1985,7 +2318,7 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -1994,7 +2327,7 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -2003,7 +2336,7 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -2012,7 +2345,7 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -2021,7 +2354,7 @@
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -2030,7 +2363,7 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -2039,7 +2372,7 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -2048,7 +2381,7 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -2057,7 +2390,7 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -2066,7 +2399,7 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -2075,7 +2408,7 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="6"/>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -2084,8 +2417,8 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="9">
-        <f t="shared" ref="C68:C99" si="1">B68+D68-1</f>
+      <c r="C68" s="8">
+        <f t="shared" ref="C68:C99" si="2">B68+D68-1</f>
         <v>-1</v>
       </c>
       <c r="D68" s="5"/>
@@ -2093,8 +2426,8 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="9">
-        <f t="shared" si="1"/>
+      <c r="C69" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D69" s="5"/>
@@ -2102,8 +2435,8 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="9">
-        <f t="shared" si="1"/>
+      <c r="C70" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D70" s="5"/>
@@ -2111,8 +2444,8 @@
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="9">
-        <f t="shared" si="1"/>
+      <c r="C71" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D71" s="5"/>
@@ -2120,8 +2453,8 @@
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="9">
-        <f t="shared" si="1"/>
+      <c r="C72" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D72" s="5"/>
@@ -2129,8 +2462,8 @@
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="9">
-        <f t="shared" si="1"/>
+      <c r="C73" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D73" s="5"/>
@@ -2138,8 +2471,8 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="6"/>
-      <c r="C74" s="9">
-        <f t="shared" si="1"/>
+      <c r="C74" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D74" s="5"/>
@@ -2147,8 +2480,8 @@
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="9">
-        <f t="shared" si="1"/>
+      <c r="C75" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D75" s="5"/>
@@ -2156,8 +2489,8 @@
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="9">
-        <f t="shared" si="1"/>
+      <c r="C76" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D76" s="5"/>
@@ -2165,8 +2498,8 @@
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="9">
-        <f t="shared" si="1"/>
+      <c r="C77" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D77" s="5"/>
@@ -2174,8 +2507,8 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="9">
-        <f t="shared" si="1"/>
+      <c r="C78" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D78" s="5"/>
@@ -2183,8 +2516,8 @@
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="9">
-        <f t="shared" si="1"/>
+      <c r="C79" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D79" s="5"/>
@@ -2192,8 +2525,8 @@
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="9">
-        <f t="shared" si="1"/>
+      <c r="C80" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D80" s="5"/>
@@ -2201,8 +2534,8 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="9">
-        <f t="shared" si="1"/>
+      <c r="C81" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D81" s="5"/>
@@ -2210,8 +2543,8 @@
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="9">
-        <f t="shared" si="1"/>
+      <c r="C82" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D82" s="5"/>
@@ -2219,8 +2552,8 @@
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="9">
-        <f t="shared" si="1"/>
+      <c r="C83" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D83" s="5"/>
@@ -2228,8 +2561,8 @@
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="9">
-        <f t="shared" si="1"/>
+      <c r="C84" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D84" s="5"/>
@@ -2237,8 +2570,8 @@
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="9">
-        <f t="shared" si="1"/>
+      <c r="C85" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D85" s="5"/>
@@ -2246,8 +2579,8 @@
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="9">
-        <f t="shared" si="1"/>
+      <c r="C86" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D86" s="5"/>
@@ -2255,8 +2588,8 @@
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="6"/>
-      <c r="C87" s="9">
-        <f t="shared" si="1"/>
+      <c r="C87" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D87" s="5"/>
@@ -2264,8 +2597,8 @@
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="9">
-        <f t="shared" si="1"/>
+      <c r="C88" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D88" s="5"/>
@@ -2273,8 +2606,8 @@
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="9">
-        <f t="shared" si="1"/>
+      <c r="C89" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D89" s="5"/>
@@ -2282,8 +2615,8 @@
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="9">
-        <f t="shared" si="1"/>
+      <c r="C90" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D90" s="5"/>
@@ -2291,8 +2624,8 @@
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="9">
-        <f t="shared" si="1"/>
+      <c r="C91" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D91" s="5"/>
@@ -2300,8 +2633,8 @@
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="9">
-        <f t="shared" si="1"/>
+      <c r="C92" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D92" s="5"/>
@@ -2309,8 +2642,8 @@
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="9">
-        <f t="shared" si="1"/>
+      <c r="C93" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D93" s="5"/>
@@ -2318,8 +2651,8 @@
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="9">
-        <f t="shared" si="1"/>
+      <c r="C94" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D94" s="5"/>
@@ -2327,8 +2660,8 @@
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="9">
-        <f t="shared" si="1"/>
+      <c r="C95" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D95" s="5"/>
@@ -2336,8 +2669,8 @@
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="9">
-        <f t="shared" si="1"/>
+      <c r="C96" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D96" s="5"/>
@@ -2345,8 +2678,8 @@
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="9">
-        <f t="shared" si="1"/>
+      <c r="C97" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D97" s="2"/>
@@ -2354,8 +2687,8 @@
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="9">
-        <f t="shared" si="1"/>
+      <c r="C98" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D98" s="2"/>
@@ -2363,8 +2696,8 @@
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="9">
-        <f t="shared" si="1"/>
+      <c r="C99" s="8">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D99" s="2"/>

--- a/PreliminarySchedule.xlsx
+++ b/PreliminarySchedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="8010"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -52,91 +52,88 @@
     <t>Content management project</t>
   </si>
   <si>
-    <t>Search for suitable vendors
-Advertise on internet, newspaper</t>
-  </si>
-  <si>
-    <t>send request for further information to vendors</t>
-  </si>
-  <si>
     <t>define software evaluation process</t>
   </si>
   <si>
-    <t>prepare request for propose</t>
-  </si>
-  <si>
-    <t>send request for proposal to vendors</t>
-  </si>
-  <si>
-    <t>receive and evaluate proposal from vendor</t>
-  </si>
-  <si>
-    <t>vendor demonstrate their solution</t>
-  </si>
-  <si>
-    <t>test and benchmark</t>
-  </si>
-  <si>
-    <t>negotiate with selected vendor</t>
-  </si>
-  <si>
-    <t>implement CMS</t>
-  </si>
-  <si>
-    <t>testing, benchmarking, negotiaton
- with second selected vendor (optional)</t>
-  </si>
-  <si>
-    <t>testing, benchmarking, negotiaton 
-with third selected vendor (optional)</t>
-  </si>
-  <si>
-    <t>receive and evaluate 
-further information from vendor</t>
-  </si>
-  <si>
-    <t>discuss with customer 
-about proposed solutions</t>
-  </si>
-  <si>
-    <t>set up enviroment for 
-testing and benchmarking</t>
-  </si>
-  <si>
-    <t>training users</t>
-  </si>
-  <si>
-    <t>deployment</t>
-  </si>
-  <si>
-    <t>detailed discussion</t>
-  </si>
-  <si>
-    <t>implementation planning</t>
-  </si>
-  <si>
-    <t>design the system</t>
-  </si>
-  <si>
-    <t>development the system</t>
-  </si>
-  <si>
-    <t>testing the system</t>
-  </si>
-  <si>
-    <t>modification request</t>
-  </si>
-  <si>
-    <t>create go live plan</t>
-  </si>
-  <si>
     <t>HRMS project</t>
   </si>
   <si>
-    <t>system training</t>
-  </si>
-  <si>
-    <t>announce selected vendors</t>
+    <t>Send request for further information to vendors</t>
+  </si>
+  <si>
+    <t>Send request for proposal to vendors</t>
+  </si>
+  <si>
+    <t>Receive and evaluate proposal from vendor</t>
+  </si>
+  <si>
+    <t>Vendor demonstrate their solution</t>
+  </si>
+  <si>
+    <t>Test and benchmark</t>
+  </si>
+  <si>
+    <t>Negotiate with selected vendor</t>
+  </si>
+  <si>
+    <t>Announce selected vendors</t>
+  </si>
+  <si>
+    <t>Implement CMS</t>
+  </si>
+  <si>
+    <t>System training</t>
+  </si>
+  <si>
+    <t>Detailed discussion</t>
+  </si>
+  <si>
+    <t>Implementation planning</t>
+  </si>
+  <si>
+    <t>Design the system</t>
+  </si>
+  <si>
+    <t>Development the system</t>
+  </si>
+  <si>
+    <t>Testing the system</t>
+  </si>
+  <si>
+    <t>Modification request</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Training users</t>
+  </si>
+  <si>
+    <t>Discuss with customer about proposed solutions</t>
+  </si>
+  <si>
+    <t>Receive and evaluate further information from vendor</t>
+  </si>
+  <si>
+    <t>Set up enviroment for testing and benchmarking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare request for propose </t>
+  </si>
+  <si>
+    <t>Create go live plan</t>
+  </si>
+  <si>
+    <t>Search for suitable vendors 
+advertise on internet, newspaper</t>
+  </si>
+  <si>
+    <t>Test, benchmark, negotiate with 
+second selected vendor (optional)</t>
+  </si>
+  <si>
+    <t>Test, benchmark, negotiate with 
+third selected vendor (optional)</t>
   </si>
 </sst>
 </file>
@@ -261,8 +258,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23030618296788496"/>
-          <c:y val="4.0836395450568677E-2"/>
+          <c:x val="0.23713074266088738"/>
+          <c:y val="6.5118646751143233E-2"/>
           <c:w val="0.7471959143973067"/>
           <c:h val="0.93323767862350537"/>
         </c:manualLayout>
@@ -291,128 +288,74 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$21:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Content management project</c:v>
+                  <c:v>HRMS project</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Search for suitable vendors
-Advertise on internet, newspaper</c:v>
+                  <c:v>Detailed discussion</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>define software evaluation process</c:v>
+                  <c:v>Implementation planning</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>prepare request for propose</c:v>
+                  <c:v>Design the system</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>send request for further information to vendors</c:v>
+                  <c:v>Development the system</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>receive and evaluate 
-further information from vendor</c:v>
+                  <c:v>Testing the system</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>send request for proposal to vendors</c:v>
+                  <c:v>Modification request</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>receive and evaluate proposal from vendor</c:v>
+                  <c:v>Create go live plan</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>vendor demonstrate their solution</c:v>
+                  <c:v>Deployment</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>discuss with customer 
-about proposed solutions</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>set up enviroment for 
-testing and benchmarking</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>test and benchmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>negotiate with selected vendor</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>testing, benchmarking, negotiaton
- with second selected vendor (optional)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>testing, benchmarking, negotiaton 
-with third selected vendor (optional)</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>announce selected vendors</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>implement CMS</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>system training</c:v>
+                  <c:v>Training users</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$B$21:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
-                  <c:v>42491</c:v>
+                  <c:v>42500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42491</c:v>
+                  <c:v>42510</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42491</c:v>
+                  <c:v>42515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42498</c:v>
+                  <c:v>42525</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42499</c:v>
+                  <c:v>42585</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42504</c:v>
+                  <c:v>42595</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42505</c:v>
+                  <c:v>42605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42512</c:v>
+                  <c:v>42607</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42516</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42524</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42526</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42527</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42530</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42535</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42540</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42541</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42586</c:v>
+                  <c:v>42610</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,128 +378,74 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$21:$A$30</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Content management project</c:v>
+                  <c:v>HRMS project</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Search for suitable vendors
-Advertise on internet, newspaper</c:v>
+                  <c:v>Detailed discussion</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>define software evaluation process</c:v>
+                  <c:v>Implementation planning</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>prepare request for propose</c:v>
+                  <c:v>Design the system</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>send request for further information to vendors</c:v>
+                  <c:v>Development the system</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>receive and evaluate 
-further information from vendor</c:v>
+                  <c:v>Testing the system</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>send request for proposal to vendors</c:v>
+                  <c:v>Modification request</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>receive and evaluate proposal from vendor</c:v>
+                  <c:v>Create go live plan</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>vendor demonstrate their solution</c:v>
+                  <c:v>Deployment</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>discuss with customer 
-about proposed solutions</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>set up enviroment for 
-testing and benchmarking</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>test and benchmark</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>negotiate with selected vendor</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>testing, benchmarking, negotiaton
- with second selected vendor (optional)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>testing, benchmarking, negotiaton 
-with third selected vendor (optional)</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>announce selected vendors</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>implement CMS</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>system training</c:v>
+                  <c:v>Training users</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$19</c:f>
+              <c:f>Sheet1!$D$21:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -572,11 +461,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="109298432"/>
-        <c:axId val="109299968"/>
+        <c:axId val="102370304"/>
+        <c:axId val="102388480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109298432"/>
+        <c:axId val="102370304"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -586,29 +475,32 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="25400"/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109299968"/>
+        <c:crossAx val="102388480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="r"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109299968"/>
+        <c:axId val="102388480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="42589"/>
-          <c:min val="42491"/>
+          <c:max val="42619"/>
+          <c:min val="42500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -617,7 +509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109298432"/>
+        <c:crossAx val="102370304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -628,16 +520,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1600" i="1"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -697,74 +579,73 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$21:$A$30</c:f>
+              <c:f>Sheet1!$A$9:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>HRMS project</c:v>
+                  <c:v>Receive and evaluate proposal from vendor</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>detailed discussion</c:v>
+                  <c:v>Vendor demonstrate their solution</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>implementation planning</c:v>
+                  <c:v>Discuss with customer about proposed solutions</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>design the system</c:v>
+                  <c:v>Set up enviroment for testing and benchmarking</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>development the system</c:v>
+                  <c:v>Test and benchmark</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>testing the system</c:v>
+                  <c:v>Negotiate with selected vendor</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>modification request</c:v>
+                  <c:v>Test, benchmark, negotiate with 
+second selected vendor (optional)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>create go live plan</c:v>
+                  <c:v>Test, benchmark, negotiate with 
+third selected vendor (optional)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>deployment</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>training users</c:v>
+                  <c:v>Announce selected vendors</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$30</c:f>
+              <c:f>Sheet1!$B$9:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42505</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>42500</c:v>
+                  <c:v>42512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42510</c:v>
+                  <c:v>42516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42515</c:v>
+                  <c:v>42524</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42525</c:v>
+                  <c:v>42526</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42585</c:v>
+                  <c:v>42527</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42595</c:v>
+                  <c:v>42530</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42605</c:v>
+                  <c:v>42535</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42607</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42610</c:v>
+                  <c:v>42540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,74 +668,73 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$21:$A$30</c:f>
+              <c:f>Sheet1!$A$9:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>HRMS project</c:v>
+                  <c:v>Receive and evaluate proposal from vendor</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>detailed discussion</c:v>
+                  <c:v>Vendor demonstrate their solution</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>implementation planning</c:v>
+                  <c:v>Discuss with customer about proposed solutions</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>design the system</c:v>
+                  <c:v>Set up enviroment for testing and benchmarking</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>development the system</c:v>
+                  <c:v>Test and benchmark</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>testing the system</c:v>
+                  <c:v>Negotiate with selected vendor</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>modification request</c:v>
+                  <c:v>Test, benchmark, negotiate with 
+second selected vendor (optional)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>create go live plan</c:v>
+                  <c:v>Test, benchmark, negotiate with 
+third selected vendor (optional)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>deployment</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>training users</c:v>
+                  <c:v>Announce selected vendors</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$D$30</c:f>
+              <c:f>Sheet1!$D$9:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,11 +750,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="49867008"/>
-        <c:axId val="51102464"/>
+        <c:axId val="102413056"/>
+        <c:axId val="102414592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49867008"/>
+        <c:axId val="102413056"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -886,18 +766,33 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="25400"/>
+          <a:effectLst>
+            <a:glow>
+              <a:schemeClr val="accent1">
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:glow>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43137"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1600" b="0" i="0" kern="100" baseline="0">
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51102464"/>
+        <c:crossAx val="102414592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -905,11 +800,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51102464"/>
+        <c:axId val="102414592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="42619"/>
-          <c:min val="42500"/>
+          <c:max val="42547"/>
+          <c:min val="42505"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -918,7 +813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49867008"/>
+        <c:crossAx val="102413056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -988,75 +883,125 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$9:$A$17</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>receive and evaluate proposal from vendor</c:v>
+                  <c:v>Content management project</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>vendor demonstrate their solution</c:v>
+                  <c:v>Search for suitable vendors 
+advertise on internet, newspaper</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>discuss with customer 
-about proposed solutions</c:v>
+                  <c:v>define software evaluation process</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>set up enviroment for 
-testing and benchmarking</c:v>
+                  <c:v>Prepare request for propose </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>test and benchmark</c:v>
+                  <c:v>Send request for further information to vendors</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>negotiate with selected vendor</c:v>
+                  <c:v>Receive and evaluate further information from vendor</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>testing, benchmarking, negotiaton
- with second selected vendor (optional)</c:v>
+                  <c:v>Send request for proposal to vendors</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>testing, benchmarking, negotiaton 
-with third selected vendor (optional)</c:v>
+                  <c:v>Receive and evaluate proposal from vendor</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>announce selected vendors</c:v>
+                  <c:v>Vendor demonstrate their solution</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Discuss with customer about proposed solutions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Set up enviroment for testing and benchmarking</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Test and benchmark</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Negotiate with selected vendor</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Test, benchmark, negotiate with 
+second selected vendor (optional)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Test, benchmark, negotiate with 
+third selected vendor (optional)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Announce selected vendors</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Implement CMS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>System training</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42504</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>42505</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>42512</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>42516</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>42524</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>42526</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>42527</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>42530</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>42535</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>42540</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42541</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,75 +1024,125 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$9:$A$17</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>receive and evaluate proposal from vendor</c:v>
+                  <c:v>Content management project</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>vendor demonstrate their solution</c:v>
+                  <c:v>Search for suitable vendors 
+advertise on internet, newspaper</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>discuss with customer 
-about proposed solutions</c:v>
+                  <c:v>define software evaluation process</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>set up enviroment for 
-testing and benchmarking</c:v>
+                  <c:v>Prepare request for propose </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>test and benchmark</c:v>
+                  <c:v>Send request for further information to vendors</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>negotiate with selected vendor</c:v>
+                  <c:v>Receive and evaluate further information from vendor</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>testing, benchmarking, negotiaton
- with second selected vendor (optional)</c:v>
+                  <c:v>Send request for proposal to vendors</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>testing, benchmarking, negotiaton 
-with third selected vendor (optional)</c:v>
+                  <c:v>Receive and evaluate proposal from vendor</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>announce selected vendors</c:v>
+                  <c:v>Vendor demonstrate their solution</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Discuss with customer about proposed solutions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Set up enviroment for testing and benchmarking</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Test and benchmark</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Negotiate with selected vendor</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Test, benchmark, negotiate with 
+second selected vendor (optional)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Test, benchmark, negotiate with 
+third selected vendor (optional)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Announce selected vendors</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Implement CMS</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>System training</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$9:$D$17</c:f>
+              <c:f>Sheet1!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,11 +1158,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="51074560"/>
-        <c:axId val="51101696"/>
+        <c:axId val="43544576"/>
+        <c:axId val="43546112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51074560"/>
+        <c:axId val="43544576"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1179,33 +1174,18 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="25400"/>
-          <a:effectLst>
-            <a:glow>
-              <a:schemeClr val="accent1">
-                <a:alpha val="40000"/>
-              </a:schemeClr>
-            </a:glow>
-            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="43137"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="60000" vert="horz" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" kern="100" baseline="0">
-                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
-              </a:defRPr>
+              <a:defRPr sz="1200"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51101696"/>
+        <c:crossAx val="43546112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1213,11 +1193,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51101696"/>
+        <c:axId val="43546112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="42547"/>
-          <c:min val="42505"/>
+          <c:max val="42589"/>
+          <c:min val="42491"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1226,9 +1206,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51074560"/>
+        <c:crossAx val="43544576"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
         <c:majorUnit val="7"/>
         <c:minorUnit val="1"/>
       </c:valAx>
@@ -1249,21 +1229,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>486896</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>510348</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>137584</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>134938</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1279,20 +1261,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>484575</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>91568</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182562</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>41866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>334335</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>91568</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>134938</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1311,20 +1293,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>415658</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>175292</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>49694</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1633,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA92" sqref="AA92"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,7 +1654,7 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B3" s="8">
         <v>42491</v>
@@ -1687,7 +1669,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8">
         <v>42491</v>
@@ -1702,7 +1684,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B5" s="8">
         <v>42491</v>
@@ -1717,7 +1699,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="8">
         <v>42498</v>
@@ -1730,9 +1712,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B7" s="8">
         <v>42499</v>
@@ -1747,7 +1729,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8">
         <v>42504</v>
@@ -1762,7 +1744,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="8">
         <v>42505</v>
@@ -1777,7 +1759,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8">
         <v>42512</v>
@@ -1790,9 +1772,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B11" s="8">
         <v>42516</v>
@@ -1805,9 +1787,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B12" s="8">
         <v>42524</v>
@@ -1822,7 +1804,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="8">
         <v>42526</v>
@@ -1837,7 +1819,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="8">
         <v>42527</v>
@@ -1852,7 +1834,7 @@
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8">
         <v>42530</v>
@@ -1867,7 +1849,7 @@
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B16" s="8">
         <v>42535</v>
@@ -1882,7 +1864,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B17" s="8">
         <v>42540</v>
@@ -1912,7 +1894,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B19" s="8">
         <v>42586</v>
@@ -1935,7 +1917,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1943,7 +1925,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B22" s="8">
         <v>42500</v>
@@ -1958,7 +1940,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B23" s="6">
         <f>C22+1</f>
@@ -1974,7 +1956,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B24" s="6">
         <f t="shared" ref="B24:B30" si="1">C23+1</f>
@@ -1990,7 +1972,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B25" s="6">
         <f t="shared" si="1"/>
@@ -2006,7 +1988,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B26" s="6">
         <f t="shared" si="1"/>
@@ -2022,7 +2004,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B27" s="6">
         <f t="shared" si="1"/>
@@ -2054,7 +2036,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6">
         <f t="shared" si="1"/>
@@ -2070,7 +2052,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6">
         <f t="shared" si="1"/>

--- a/PreliminarySchedule.xlsx
+++ b/PreliminarySchedule.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>a</t>
   </si>
@@ -55,9 +55,6 @@
     <t>define software evaluation process</t>
   </si>
   <si>
-    <t>HRMS project</t>
-  </si>
-  <si>
     <t>Send request for further information to vendors</t>
   </si>
   <si>
@@ -92,15 +89,6 @@
   </si>
   <si>
     <t>Design the system</t>
-  </si>
-  <si>
-    <t>Development the system</t>
-  </si>
-  <si>
-    <t>Testing the system</t>
-  </si>
-  <si>
-    <t>Modification request</t>
   </si>
   <si>
     <t>Deployment</t>
@@ -134,6 +122,60 @@
   <si>
     <t>Test, benchmark, negotiate with 
 third selected vendor (optional)</t>
+  </si>
+  <si>
+    <t>HRMS system</t>
+  </si>
+  <si>
+    <t>CRM system</t>
+  </si>
+  <si>
+    <t>Develop the system</t>
+  </si>
+  <si>
+    <t>Test the system</t>
+  </si>
+  <si>
+    <t>Modify request</t>
+  </si>
+  <si>
+    <t>Set up hardware</t>
+  </si>
+  <si>
+    <t>Assess and make recommendation to current hardware</t>
+  </si>
+  <si>
+    <t>Design user interface</t>
+  </si>
+  <si>
+    <t>Define usecases, flowcharts, statecharts</t>
+  </si>
+  <si>
+    <t>Define test cases</t>
+  </si>
+  <si>
+    <t>Develop system</t>
+  </si>
+  <si>
+    <t>Test and fix bugs</t>
+  </si>
+  <si>
+    <t>Evaluate system</t>
+  </si>
+  <si>
+    <t>Deploy system</t>
+  </si>
+  <si>
+    <t>Find suitable hardware</t>
+  </si>
+  <si>
+    <t>Set up electricity system</t>
+  </si>
+  <si>
+    <t>Set up network(wifi, internet, LAN)</t>
+  </si>
+  <si>
+    <t>Test hardware system</t>
   </si>
 </sst>
 </file>
@@ -176,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -184,11 +226,187 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -202,22 +420,109 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -288,11 +593,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$21:$A$30</c:f>
+              <c:f>Sheet1!$A$30:$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>HRMS project</c:v>
+                  <c:v>HRMS system</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Detailed discussion</c:v>
@@ -304,13 +609,13 @@
                   <c:v>Design the system</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Development the system</c:v>
+                  <c:v>Develop the system</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Testing the system</c:v>
+                  <c:v>Test the system</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Modification request</c:v>
+                  <c:v>Modify request</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Create go live plan</c:v>
@@ -326,36 +631,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$B$30</c:f>
+              <c:f>Sheet1!$B$30:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="1">
-                  <c:v>42500</c:v>
+                  <c:v>42531</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42510</c:v>
+                  <c:v>42541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42515</c:v>
+                  <c:v>42546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42525</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42585</c:v>
+                  <c:v>42616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42595</c:v>
+                  <c:v>42626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42605</c:v>
+                  <c:v>42636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42607</c:v>
+                  <c:v>42638</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42610</c:v>
+                  <c:v>42641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -378,11 +683,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$21:$A$30</c:f>
+              <c:f>Sheet1!$A$30:$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>HRMS project</c:v>
+                  <c:v>HRMS system</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Detailed discussion</c:v>
@@ -394,13 +699,13 @@
                   <c:v>Design the system</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Development the system</c:v>
+                  <c:v>Develop the system</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Testing the system</c:v>
+                  <c:v>Test the system</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Modification request</c:v>
+                  <c:v>Modify request</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Create go live plan</c:v>
@@ -416,7 +721,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$D$30</c:f>
+              <c:f>Sheet1!$D$30:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -461,11 +766,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="102370304"/>
-        <c:axId val="102388480"/>
+        <c:axId val="101303808"/>
+        <c:axId val="101305344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102370304"/>
+        <c:axId val="101303808"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -488,7 +793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102388480"/>
+        <c:crossAx val="101305344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -496,11 +801,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102388480"/>
+        <c:axId val="101305344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="42619"/>
-          <c:min val="42500"/>
+          <c:max val="42650"/>
+          <c:min val="42531"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -509,7 +814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102370304"/>
+        <c:crossAx val="101303808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -579,9 +884,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$9:$A$17</c:f>
+              <c:f>Sheet1!$A$17:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Receive and evaluate proposal from vendor</c:v>
                 </c:pt>
@@ -610,42 +915,54 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Announce selected vendors</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Implement CMS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>System training</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$17</c:f>
+              <c:f>Sheet1!$B$17:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>42505</c:v>
+                  <c:v>42536</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42512</c:v>
+                  <c:v>42543</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42516</c:v>
+                  <c:v>42547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42524</c:v>
+                  <c:v>42554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42526</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42527</c:v>
+                  <c:v>42557</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42530</c:v>
+                  <c:v>42560</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42535</c:v>
+                  <c:v>42565</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42540</c:v>
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,9 +985,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$9:$A$17</c:f>
+              <c:f>Sheet1!$A$17:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Receive and evaluate proposal from vendor</c:v>
                 </c:pt>
@@ -699,16 +1016,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Announce selected vendors</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Implement CMS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>System training</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$9:$D$17</c:f>
+              <c:f>Sheet1!$D$17:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -735,6 +1058,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,11 +1079,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="102413056"/>
-        <c:axId val="102414592"/>
+        <c:axId val="101583872"/>
+        <c:axId val="101593856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102413056"/>
+        <c:axId val="101583872"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -792,7 +1121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102414592"/>
+        <c:crossAx val="101593856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -800,11 +1129,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102414592"/>
+        <c:axId val="101593856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="42547"/>
-          <c:min val="42505"/>
+          <c:max val="42620"/>
+          <c:min val="42536"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -813,7 +1142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102413056"/>
+        <c:crossAx val="101583872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -883,7 +1212,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$10:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
@@ -948,60 +1277,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$B$10:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="1">
-                  <c:v>42491</c:v>
+                  <c:v>42522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42491</c:v>
+                  <c:v>42522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42491</c:v>
+                  <c:v>42522</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42498</c:v>
+                  <c:v>42529</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42499</c:v>
+                  <c:v>42530</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42504</c:v>
+                  <c:v>42535</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42505</c:v>
+                  <c:v>42536</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42512</c:v>
+                  <c:v>42543</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42516</c:v>
+                  <c:v>42547</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42524</c:v>
+                  <c:v>42554</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42526</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42527</c:v>
+                  <c:v>42557</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42530</c:v>
+                  <c:v>42560</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42535</c:v>
+                  <c:v>42565</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42540</c:v>
+                  <c:v>42570</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42541</c:v>
+                  <c:v>42571</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42586</c:v>
+                  <c:v>42617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,7 +1353,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$10:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
@@ -1089,7 +1418,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$19</c:f>
+              <c:f>Sheet1!$D$10:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1158,11 +1487,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="43544576"/>
-        <c:axId val="43546112"/>
+        <c:axId val="101626624"/>
+        <c:axId val="101628160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43544576"/>
+        <c:axId val="101626624"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1185,7 +1514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43546112"/>
+        <c:crossAx val="101628160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1193,10 +1522,697 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43546112"/>
+        <c:axId val="101628160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="42589"/>
+          <c:max val="42620"/>
+          <c:min val="42522"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="m/d;@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101626624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="7"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23030618296788496"/>
+          <c:y val="4.0836395450568677E-2"/>
+          <c:w val="0.7471959143973067"/>
+          <c:h val="0.93323767862350537"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>start date </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>Set up hardware</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Find suitable hardware</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Set up electricity system</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Set up hardware</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Set up network(wifi, internet, LAN)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Test hardware system</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Content management project</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Search for suitable vendors 
+advertise on internet, newspaper</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>define software evaluation process</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Prepare request for propose </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Send request for further information to vendors</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Receive and evaluate further information from vendor</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Send request for proposal to vendors</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Receive and evaluate proposal from vendor</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Vendor demonstrate their solution</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Discuss with customer about proposed solutions</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Set up enviroment for testing and benchmarking</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Test and benchmark</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Negotiate with selected vendor</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Test, benchmark, negotiate with 
+second selected vendor (optional)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Test, benchmark, negotiate with 
+third selected vendor (optional)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Announce selected vendors</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Implement CMS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>System training</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>HRMS system</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Detailed discussion</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Implementation planning</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Design the system</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Develop the system</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Test the system</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Modify request</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Create go live plan</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Deployment</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Training users</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>CRM system</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Assess and make recommendation to current hardware</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Design user interface</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Define usecases, flowcharts, statecharts</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Define test cases</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Develop system</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Test and fix bugs</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Evaluate system</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Deploy system</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>System training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="1">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42510</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42510</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42517</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42530</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42535</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42543</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42547</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42560</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42617</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42541</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42546</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42616</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42636</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42638</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42641</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42545</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42635</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42642</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42645</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>end date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>Set up hardware</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Find suitable hardware</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Set up electricity system</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Set up hardware</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Set up network(wifi, internet, LAN)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Test hardware system</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Content management project</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Search for suitable vendors 
+advertise on internet, newspaper</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>define software evaluation process</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Prepare request for propose </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Send request for further information to vendors</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Receive and evaluate further information from vendor</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Send request for proposal to vendors</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Receive and evaluate proposal from vendor</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Vendor demonstrate their solution</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Discuss with customer about proposed solutions</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Set up enviroment for testing and benchmarking</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Test and benchmark</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Negotiate with selected vendor</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Test, benchmark, negotiate with 
+second selected vendor (optional)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Test, benchmark, negotiate with 
+third selected vendor (optional)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Announce selected vendors</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Implement CMS</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>System training</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>HRMS system</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Detailed discussion</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Implementation planning</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Design the system</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Develop the system</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Test the system</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Modify request</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Create go live plan</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Deployment</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Training users</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>CRM system</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Assess and make recommendation to current hardware</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Design user interface</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Define usecases, flowcharts, statecharts</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Define test cases</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Develop system</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Test and fix bugs</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Evaluate system</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Deploy system</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>System training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="43454848"/>
+        <c:axId val="43456384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="43454848"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="25400"/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43456384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43456384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42652"/>
           <c:min val="42491"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1206,9 +2222,300 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43544576"/>
+        <c:crossAx val="43454848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="7"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23713074266088738"/>
+          <c:y val="6.5118646751143233E-2"/>
+          <c:w val="0.7471959143973067"/>
+          <c:h val="0.93323767862350537"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>start date </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CRM system</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Assess and make recommendation to current hardware</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Design user interface</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Define usecases, flowcharts, statecharts</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Define test cases</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Develop system</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Test and fix bugs</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Evaluate system</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Deploy system</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>System training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$42:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42635</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42642</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42645</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>end date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$42:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CRM system</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Assess and make recommendation to current hardware</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Design user interface</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Define usecases, flowcharts, statecharts</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Define test cases</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Develop system</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Test and fix bugs</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Evaluate system</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Deploy system</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>System training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$42:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="68987136"/>
+        <c:axId val="69935104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68987136"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="mm/dd/yy;@" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="25400"/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69935104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69935104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42650"/>
+          <c:min val="42531"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="m/d;@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68987136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
         <c:minorUnit val="1"/>
       </c:valAx>
@@ -1229,16 +2536,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>529318</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>112259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>134938</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>343581</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>112259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1261,16 +2568,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>182562</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>41866</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>134938</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1293,16 +2600,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>140803</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>417514</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>414130</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>49694</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1318,6 +2625,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>394606</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1613,10 +2984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="E40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,644 +2999,705 @@
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="10">
+        <v>42491</v>
+      </c>
+      <c r="C3" s="10">
+        <f>B3+D3-1</f>
+        <v>42504</v>
+      </c>
+      <c r="D3" s="14">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="10">
+        <v>42505</v>
+      </c>
+      <c r="C4" s="10">
+        <f t="shared" ref="C4:C7" si="0">B4+D4-1</f>
+        <v>42509</v>
+      </c>
+      <c r="D4" s="14">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="10">
+        <v>42510</v>
+      </c>
+      <c r="C5" s="10">
+        <f t="shared" si="0"/>
+        <v>42516</v>
+      </c>
+      <c r="D5" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="10">
+        <v>42510</v>
+      </c>
+      <c r="C6" s="10">
+        <f t="shared" si="0"/>
+        <v>42516</v>
+      </c>
+      <c r="D6" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="10">
+        <v>42517</v>
+      </c>
+      <c r="C7" s="10">
+        <f t="shared" si="0"/>
+        <v>42521</v>
+      </c>
+      <c r="D7" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="8">
-        <v>42491</v>
-      </c>
-      <c r="C3" s="8">
-        <f>B3+D3-1</f>
-        <v>42497</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="18">
+        <v>42522</v>
+      </c>
+      <c r="C11" s="18">
+        <f>B11+D11-1</f>
+        <v>42528</v>
+      </c>
+      <c r="D11" s="28">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8">
-        <v>42491</v>
-      </c>
-      <c r="C4" s="8">
-        <f t="shared" ref="C4:C67" si="0">B4+D4-1</f>
-        <v>42497</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="B12" s="10">
+        <v>42522</v>
+      </c>
+      <c r="C12" s="10">
+        <f>B12+D12-1</f>
+        <v>42528</v>
+      </c>
+      <c r="D12" s="30">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="10">
+        <v>42522</v>
+      </c>
+      <c r="C13" s="10">
+        <f>B13+D13-1</f>
+        <v>42528</v>
+      </c>
+      <c r="D13" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>42529</v>
+      </c>
+      <c r="C14" s="10">
+        <f>B14+D14-1</f>
+        <v>42529</v>
+      </c>
+      <c r="D14" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="10">
+        <v>42530</v>
+      </c>
+      <c r="C15" s="10">
+        <f>B15+D15-1</f>
+        <v>42534</v>
+      </c>
+      <c r="D15" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10">
+        <v>42535</v>
+      </c>
+      <c r="C16" s="10">
+        <f>B16+D16-1</f>
+        <v>42535</v>
+      </c>
+      <c r="D16" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10">
+        <v>42536</v>
+      </c>
+      <c r="C17" s="10">
+        <f>B17+D17-1</f>
+        <v>42542</v>
+      </c>
+      <c r="D17" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10">
+        <v>42543</v>
+      </c>
+      <c r="C18" s="10">
+        <f>B18+D18-1</f>
+        <v>42546</v>
+      </c>
+      <c r="D18" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="10">
+        <v>42547</v>
+      </c>
+      <c r="C19" s="10">
+        <f>B19+D19-1</f>
+        <v>42553</v>
+      </c>
+      <c r="D19" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="10">
+        <v>42554</v>
+      </c>
+      <c r="C20" s="10">
+        <f>B20+D20-1</f>
+        <v>42555</v>
+      </c>
+      <c r="D20" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10">
+        <v>42556</v>
+      </c>
+      <c r="C21" s="10">
+        <f>B21+D21-1</f>
+        <v>42556</v>
+      </c>
+      <c r="D21" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10">
+        <v>42557</v>
+      </c>
+      <c r="C22" s="10">
+        <f>B22+D22-1</f>
+        <v>42559</v>
+      </c>
+      <c r="D22" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="10">
+        <v>42560</v>
+      </c>
+      <c r="C23" s="10">
+        <f>B23+D23-1</f>
+        <v>42564</v>
+      </c>
+      <c r="D23" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="8">
-        <v>42491</v>
-      </c>
-      <c r="C5" s="8">
-        <f t="shared" si="0"/>
-        <v>42497</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="B24" s="10">
+        <v>42565</v>
+      </c>
+      <c r="C24" s="10">
+        <f>B24+D24-1</f>
+        <v>42569</v>
+      </c>
+      <c r="D24" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="10">
+        <v>42570</v>
+      </c>
+      <c r="C25" s="10">
+        <f>B25+D25-1</f>
+        <v>42570</v>
+      </c>
+      <c r="D25" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="10">
+        <v>42571</v>
+      </c>
+      <c r="C26" s="10">
+        <f>B26+D26-1</f>
+        <v>42615</v>
+      </c>
+      <c r="D26" s="31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="24">
+        <v>42617</v>
+      </c>
+      <c r="C27" s="24">
+        <f>B27+D27-1</f>
+        <v>42618</v>
+      </c>
+      <c r="D27" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="18">
+        <v>42531</v>
+      </c>
+      <c r="C31" s="18">
+        <f>B31+D31-1</f>
+        <v>42540</v>
+      </c>
+      <c r="D31" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="13">
+        <f>C31+1</f>
+        <v>42541</v>
+      </c>
+      <c r="C32" s="10">
+        <f>B32+D32-1</f>
+        <v>42545</v>
+      </c>
+      <c r="D32" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="13">
+        <f t="shared" ref="B33:B39" si="1">C32+1</f>
+        <v>42546</v>
+      </c>
+      <c r="C33" s="10">
+        <f>B33+D33-1</f>
+        <v>42555</v>
+      </c>
+      <c r="D33" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="13">
+        <f t="shared" si="1"/>
+        <v>42556</v>
+      </c>
+      <c r="C34" s="10">
+        <f>B34+D34-1</f>
+        <v>42615</v>
+      </c>
+      <c r="D34" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="13">
+        <f t="shared" si="1"/>
+        <v>42616</v>
+      </c>
+      <c r="C35" s="10">
+        <f>B35+D35-1</f>
+        <v>42625</v>
+      </c>
+      <c r="D35" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="13">
+        <f t="shared" si="1"/>
+        <v>42626</v>
+      </c>
+      <c r="C36" s="10">
+        <f>B36+D36-1</f>
+        <v>42635</v>
+      </c>
+      <c r="D36" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="13">
+        <f t="shared" si="1"/>
+        <v>42636</v>
+      </c>
+      <c r="C37" s="10">
+        <f>B37+D37-1</f>
+        <v>42637</v>
+      </c>
+      <c r="D37" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="13">
+        <f t="shared" si="1"/>
+        <v>42638</v>
+      </c>
+      <c r="C38" s="10">
+        <f>B38+D38-1</f>
+        <v>42640</v>
+      </c>
+      <c r="D38" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="23">
+        <f t="shared" si="1"/>
+        <v>42641</v>
+      </c>
+      <c r="C39" s="24">
+        <f>B39+D39-1</f>
+        <v>42647</v>
+      </c>
+      <c r="D39" s="25">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8">
-        <v>42498</v>
-      </c>
-      <c r="C6" s="8">
-        <f t="shared" si="0"/>
-        <v>42498</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="8">
-        <v>42499</v>
-      </c>
-      <c r="C7" s="8">
-        <f t="shared" si="0"/>
-        <v>42503</v>
-      </c>
-      <c r="D7" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8">
-        <v>42504</v>
-      </c>
-      <c r="C8" s="8">
-        <f t="shared" si="0"/>
-        <v>42504</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="8">
-        <v>42505</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>42511</v>
-      </c>
-      <c r="D9" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="8">
-        <v>42512</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="0"/>
-        <v>42515</v>
-      </c>
-      <c r="D10" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8">
-        <v>42516</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" si="0"/>
-        <v>42522</v>
-      </c>
-      <c r="D11" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="8">
-        <v>42524</v>
-      </c>
-      <c r="C12" s="8">
-        <f t="shared" si="0"/>
-        <v>42525</v>
-      </c>
-      <c r="D12" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8">
-        <v>42526</v>
-      </c>
-      <c r="C13" s="8">
-        <f t="shared" si="0"/>
-        <v>42526</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8">
-        <v>42527</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" si="0"/>
-        <v>42529</v>
-      </c>
-      <c r="D14" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="8">
-        <v>42530</v>
-      </c>
-      <c r="C15" s="8">
-        <f t="shared" si="0"/>
-        <v>42534</v>
-      </c>
-      <c r="D15" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="8">
-        <v>42535</v>
-      </c>
-      <c r="C16" s="8">
-        <f t="shared" si="0"/>
-        <v>42539</v>
-      </c>
-      <c r="D16" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="8">
-        <v>42540</v>
-      </c>
-      <c r="C17" s="8">
-        <f t="shared" si="0"/>
-        <v>42540</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="8">
-        <v>42541</v>
-      </c>
-      <c r="C18" s="8">
-        <f>B18+D18-1</f>
-        <v>42585</v>
-      </c>
-      <c r="D18" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="8">
-        <v>42586</v>
-      </c>
-      <c r="C19" s="8">
-        <f>B19+D19-1</f>
-        <v>42587</v>
-      </c>
-      <c r="D19" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="8">
-        <v>42500</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" si="0"/>
-        <v>42509</v>
-      </c>
-      <c r="D22" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="6">
-        <f>C22+1</f>
-        <v>42510</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" si="0"/>
-        <v>42514</v>
-      </c>
-      <c r="D23" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="6">
-        <f t="shared" ref="B24:B30" si="1">C23+1</f>
-        <v>42515</v>
-      </c>
-      <c r="C24" s="8">
-        <f t="shared" si="0"/>
-        <v>42524</v>
-      </c>
-      <c r="D24" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="6">
-        <f t="shared" si="1"/>
-        <v>42525</v>
-      </c>
-      <c r="C25" s="8">
-        <f t="shared" si="0"/>
-        <v>42584</v>
-      </c>
-      <c r="D25" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="6">
-        <f t="shared" si="1"/>
-        <v>42585</v>
-      </c>
-      <c r="C26" s="8">
-        <f t="shared" si="0"/>
-        <v>42594</v>
-      </c>
-      <c r="D26" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="6">
-        <f t="shared" si="1"/>
-        <v>42595</v>
-      </c>
-      <c r="C27" s="8">
-        <f t="shared" si="0"/>
-        <v>42604</v>
-      </c>
-      <c r="D27" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="6">
-        <f t="shared" si="1"/>
-        <v>42605</v>
-      </c>
-      <c r="C28" s="8">
-        <f t="shared" si="0"/>
-        <v>42606</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6">
-        <f t="shared" si="1"/>
-        <v>42607</v>
-      </c>
-      <c r="C29" s="8">
-        <f t="shared" si="0"/>
-        <v>42609</v>
-      </c>
-      <c r="D29" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6">
-        <f t="shared" si="1"/>
-        <v>42610</v>
-      </c>
-      <c r="C30" s="8">
-        <f t="shared" si="0"/>
-        <v>42616</v>
-      </c>
-      <c r="D30" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D39" s="5"/>
-    </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
+      <c r="C41" s="7"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
+      <c r="C42" s="7"/>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D43" s="5"/>
+      <c r="A43" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="13">
+        <v>42531</v>
+      </c>
+      <c r="C43" s="10">
+        <f>B43+D43-1</f>
+        <v>42540</v>
+      </c>
+      <c r="D43" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D44" s="5"/>
+      <c r="A44" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="13">
+        <v>42531</v>
+      </c>
+      <c r="C44" s="10">
+        <f>B44+D44-1</f>
+        <v>42540</v>
+      </c>
+      <c r="D44" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D45" s="5"/>
+      <c r="A45" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="13">
+        <v>42531</v>
+      </c>
+      <c r="C45" s="10">
+        <f>B45+D45-1</f>
+        <v>42544</v>
+      </c>
+      <c r="D45" s="11">
+        <v>14</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D46" s="5"/>
+      <c r="A46" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="13">
+        <v>42531</v>
+      </c>
+      <c r="C46" s="10">
+        <f>B46+D46-1</f>
+        <v>42544</v>
+      </c>
+      <c r="D46" s="11">
+        <v>14</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D47" s="5"/>
+      <c r="A47" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="13">
+        <v>42545</v>
+      </c>
+      <c r="C47" s="10">
+        <f>B47+D47-1</f>
+        <v>42634</v>
+      </c>
+      <c r="D47" s="11">
+        <v>90</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D48" s="5"/>
+      <c r="A48" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="13">
+        <v>42635</v>
+      </c>
+      <c r="C48" s="10">
+        <f>B48+D48-1</f>
+        <v>42641</v>
+      </c>
+      <c r="D48" s="11">
+        <v>7</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D49" s="5"/>
+      <c r="A49" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="13">
+        <v>42642</v>
+      </c>
+      <c r="C49" s="10">
+        <f>B49+D49-1</f>
+        <v>42644</v>
+      </c>
+      <c r="D49" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D50" s="5"/>
+      <c r="A50" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="13">
+        <v>42645</v>
+      </c>
+      <c r="C50" s="10">
+        <f>B50+D50-1</f>
+        <v>42647</v>
+      </c>
+      <c r="D50" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="D51" s="5"/>
+      <c r="A51" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="13">
+        <v>42648</v>
+      </c>
+      <c r="C51" s="10">
+        <f>B51+D51-1</f>
+        <v>42650</v>
+      </c>
+      <c r="D51" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="8">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
+      <c r="C52" s="7"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="8">
-        <f t="shared" si="0"/>
+      <c r="C53" s="7">
+        <f t="shared" ref="C53:C65" si="2">B53+D53-1</f>
         <v>-1</v>
       </c>
       <c r="D53" s="5"/>
@@ -2273,8 +3705,8 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="8">
-        <f t="shared" si="0"/>
+      <c r="C54" s="7">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D54" s="5"/>
@@ -2282,8 +3714,8 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="8">
-        <f t="shared" si="0"/>
+      <c r="C55" s="7">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D55" s="5"/>
@@ -2291,8 +3723,8 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="8">
-        <f t="shared" si="0"/>
+      <c r="C56" s="7">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D56" s="5"/>
@@ -2300,8 +3732,8 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="8">
-        <f t="shared" si="0"/>
+      <c r="C57" s="7">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D57" s="5"/>
@@ -2309,8 +3741,8 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="8">
-        <f t="shared" si="0"/>
+      <c r="C58" s="7">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D58" s="5"/>
@@ -2318,8 +3750,8 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="8">
-        <f t="shared" si="0"/>
+      <c r="C59" s="7">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D59" s="5"/>
@@ -2327,8 +3759,8 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="8">
-        <f t="shared" si="0"/>
+      <c r="C60" s="7">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D60" s="5"/>
@@ -2336,8 +3768,8 @@
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="8">
-        <f t="shared" si="0"/>
+      <c r="C61" s="7">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D61" s="5"/>
@@ -2345,8 +3777,8 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="8">
-        <f t="shared" si="0"/>
+      <c r="C62" s="7">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D62" s="5"/>
@@ -2354,8 +3786,8 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="8">
-        <f t="shared" si="0"/>
+      <c r="C63" s="7">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D63" s="5"/>
@@ -2363,8 +3795,8 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="8">
-        <f t="shared" si="0"/>
+      <c r="C64" s="7">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D64" s="5"/>
@@ -2372,8 +3804,8 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="8">
-        <f t="shared" si="0"/>
+      <c r="C65" s="7">
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D65" s="5"/>
@@ -2381,8 +3813,8 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="8">
-        <f t="shared" si="0"/>
+      <c r="C66" s="7">
+        <f t="shared" ref="C66:C97" si="3">B66+D66-1</f>
         <v>-1</v>
       </c>
       <c r="D66" s="5"/>
@@ -2390,8 +3822,8 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="6"/>
-      <c r="C67" s="8">
-        <f t="shared" si="0"/>
+      <c r="C67" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D67" s="5"/>
@@ -2399,8 +3831,8 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="8">
-        <f t="shared" ref="C68:C99" si="2">B68+D68-1</f>
+      <c r="C68" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D68" s="5"/>
@@ -2408,8 +3840,8 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="8">
-        <f t="shared" si="2"/>
+      <c r="C69" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D69" s="5"/>
@@ -2417,8 +3849,8 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="8">
-        <f t="shared" si="2"/>
+      <c r="C70" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D70" s="5"/>
@@ -2426,8 +3858,8 @@
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="8">
-        <f t="shared" si="2"/>
+      <c r="C71" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D71" s="5"/>
@@ -2435,8 +3867,8 @@
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="8">
-        <f t="shared" si="2"/>
+      <c r="C72" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D72" s="5"/>
@@ -2444,8 +3876,8 @@
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="8">
-        <f t="shared" si="2"/>
+      <c r="C73" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D73" s="5"/>
@@ -2453,8 +3885,8 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="6"/>
-      <c r="C74" s="8">
-        <f t="shared" si="2"/>
+      <c r="C74" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D74" s="5"/>
@@ -2462,8 +3894,8 @@
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="8">
-        <f t="shared" si="2"/>
+      <c r="C75" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D75" s="5"/>
@@ -2471,8 +3903,8 @@
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="8">
-        <f t="shared" si="2"/>
+      <c r="C76" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D76" s="5"/>
@@ -2480,8 +3912,8 @@
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="8">
-        <f t="shared" si="2"/>
+      <c r="C77" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D77" s="5"/>
@@ -2489,8 +3921,8 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="8">
-        <f t="shared" si="2"/>
+      <c r="C78" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D78" s="5"/>
@@ -2498,8 +3930,8 @@
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="8">
-        <f t="shared" si="2"/>
+      <c r="C79" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D79" s="5"/>
@@ -2507,8 +3939,8 @@
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="8">
-        <f t="shared" si="2"/>
+      <c r="C80" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D80" s="5"/>
@@ -2516,8 +3948,8 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="8">
-        <f t="shared" si="2"/>
+      <c r="C81" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D81" s="5"/>
@@ -2525,8 +3957,8 @@
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="8">
-        <f t="shared" si="2"/>
+      <c r="C82" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D82" s="5"/>
@@ -2534,8 +3966,8 @@
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="8">
-        <f t="shared" si="2"/>
+      <c r="C83" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D83" s="5"/>
@@ -2543,8 +3975,8 @@
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="8">
-        <f t="shared" si="2"/>
+      <c r="C84" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D84" s="5"/>
@@ -2552,8 +3984,8 @@
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="8">
-        <f t="shared" si="2"/>
+      <c r="C85" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D85" s="5"/>
@@ -2561,8 +3993,8 @@
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="8">
-        <f t="shared" si="2"/>
+      <c r="C86" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D86" s="5"/>
@@ -2570,8 +4002,8 @@
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="6"/>
-      <c r="C87" s="8">
-        <f t="shared" si="2"/>
+      <c r="C87" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D87" s="5"/>
@@ -2579,8 +4011,8 @@
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="8">
-        <f t="shared" si="2"/>
+      <c r="C88" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D88" s="5"/>
@@ -2588,8 +4020,8 @@
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="8">
-        <f t="shared" si="2"/>
+      <c r="C89" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D89" s="5"/>
@@ -2597,8 +4029,8 @@
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="8">
-        <f t="shared" si="2"/>
+      <c r="C90" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D90" s="5"/>
@@ -2606,8 +4038,8 @@
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="8">
-        <f t="shared" si="2"/>
+      <c r="C91" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D91" s="5"/>
@@ -2615,8 +4047,8 @@
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="8">
-        <f t="shared" si="2"/>
+      <c r="C92" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D92" s="5"/>
@@ -2624,8 +4056,8 @@
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="8">
-        <f t="shared" si="2"/>
+      <c r="C93" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D93" s="5"/>
@@ -2633,8 +4065,8 @@
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="8">
-        <f t="shared" si="2"/>
+      <c r="C94" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D94" s="5"/>
@@ -2642,47 +4074,29 @@
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="8">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="D95" s="5"/>
+      <c r="C95" s="7">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="8">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="D96" s="5"/>
+      <c r="C96" s="7">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="8">
-        <f t="shared" si="2"/>
+      <c r="C97" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="8">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="8">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="D99" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
